--- a/Biblioteca/G1_Historia_Usuario_V5.xlsx
+++ b/Biblioteca/G1_Historia_Usuario_V5.xlsx
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Administrador/ Trabajadores </t>
   </si>
   <si>
-    <t>Se selecciona la opción para digitar el código único de cada producto y su información: nombre, proveedor, cantidad, precio.</t>
+    <t>Se selecciona la opción para digitar el código único de cada producto su nombre, cantidad.</t>
   </si>
   <si>
     <t>Tammy Caizapanta</t>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="M15" s="43" t="str">
         <f>VLOOKUP(C10,'Requisitos Funcionales'!B5:O11,6,0)</f>
-        <v>Se selecciona la opción para digitar el código único de cada producto y su información: nombre, proveedor, cantidad, precio.</v>
+        <v>Se selecciona la opción para digitar el código único de cada producto su nombre, cantidad.</v>
       </c>
       <c r="N15" s="45"/>
       <c r="O15" s="44"/>

--- a/Biblioteca/G1_Historia_Usuario_V5.xlsx
+++ b/Biblioteca/G1_Historia_Usuario_V5.xlsx
@@ -960,7 +960,7 @@
     <xdr:ext cx="1066800" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -988,7 +988,7 @@
     <xdr:ext cx="1095375" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
